--- a/data/performance_data/excel_condensed/men soccer.xlsx
+++ b/data/performance_data/excel_condensed/men soccer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucsdcloud-my.sharepoint.com/personal/ejnguyen_ucsd_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yil224/Group133_WI24/data/performance_data/excel_condensed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="8_{787ACF29-2655-A94E-89BD-9ED23FAA4EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA22101-90ED-D54A-BDCC-38791F527C9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B74F1-4BA8-8B47-99D2-12EFF8EF2C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="16100" xr2:uid="{6D4AA65C-8BDA-9046-893B-DEB3D15035FA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="16100" xr2:uid="{6D4AA65C-8BDA-9046-893B-DEB3D15035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,9 +410,6 @@
     </r>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>Harbour, Riley</t>
   </si>
   <si>
@@ -1374,6 +1371,9 @@
       </rPr>
       <t>Wilson, Mitchell</t>
     </r>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1382,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1481,71 +1481,71 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1566,9 +1566,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1606,7 +1606,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1712,7 +1712,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1854,7 +1854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1865,7 +1865,7 @@
   <dimension ref="A1:S185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1902,7 +1902,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
@@ -1911,7 +1911,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="11">
         <v>18</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N24" s="17">
         <v>2015</v>
@@ -2883,7 +2883,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="11">
         <v>18</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N25" s="17">
         <v>2015</v>
@@ -2928,7 +2928,7 @@
     <row r="26" spans="1:19" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11">
         <v>17</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N26" s="17">
         <v>2015</v>
@@ -2970,7 +2970,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="11">
         <v>18</v>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N27" s="17">
         <v>2015</v>
@@ -3012,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="11">
         <v>18</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N28" s="17">
         <v>2015</v>
@@ -3054,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="11">
         <v>13</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N29" s="17">
         <v>2015</v>
@@ -3096,7 +3096,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="11">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N30" s="17">
         <v>2015</v>
@@ -3138,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="11">
         <v>12</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N31" s="17">
         <v>2015</v>
@@ -3180,7 +3180,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="11">
         <v>16</v>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N32" s="17">
         <v>2015</v>
@@ -3222,7 +3222,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="11">
         <v>15</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N33" s="17">
         <v>2015</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="11">
         <v>18</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N34" s="17">
         <v>2015</v>
@@ -3306,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="11">
         <v>16</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" s="17">
         <v>2015</v>
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="11">
         <v>18</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N36" s="17">
         <v>2015</v>
@@ -3390,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="11">
         <v>14</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N37" s="17">
         <v>2015</v>
@@ -3432,7 +3432,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="11">
         <v>18</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N38" s="17">
         <v>2015</v>
@@ -3474,7 +3474,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="11">
         <v>8</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N39" s="17">
         <v>2015</v>
@@ -3516,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="11">
         <v>16</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N40" s="17">
         <v>2015</v>
@@ -3558,7 +3558,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="11">
         <v>10</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N41" s="17">
         <v>2015</v>
@@ -3600,7 +3600,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="11">
         <v>18</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N42" s="17">
         <v>2015</v>
@@ -3642,7 +3642,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="11">
         <v>15</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N43" s="17">
         <v>2015</v>
@@ -3684,7 +3684,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="11">
         <v>2</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N44" s="17">
         <v>2015</v>
@@ -3726,7 +3726,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="23">
         <v>16</v>
@@ -3768,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="23">
         <v>16</v>
@@ -3799,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N46" s="17">
         <v>2017</v>
@@ -3810,7 +3810,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="23">
         <v>17</v>
@@ -3852,7 +3852,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="23">
         <v>16</v>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N49" s="17">
         <v>2017</v>
@@ -3936,7 +3936,7 @@
         <v>18</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="23">
         <v>16</v>
@@ -3978,7 +3978,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="23">
         <v>17</v>
@@ -4020,7 +4020,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="23">
         <v>17</v>
@@ -4062,7 +4062,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="23">
         <v>15</v>
@@ -4104,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="23">
         <v>17</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N54" s="17">
         <v>2017</v>
@@ -4146,7 +4146,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="23">
         <v>17</v>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="23">
         <v>13</v>
@@ -4230,7 +4230,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="23">
         <v>13</v>
@@ -4272,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="23">
         <v>15</v>
@@ -4314,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="23">
         <v>14</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N59" s="17">
         <v>2017</v>
@@ -4356,7 +4356,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="23">
         <v>16</v>
@@ -4398,7 +4398,7 @@
         <v>15</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="23">
         <v>9</v>
@@ -4440,7 +4440,7 @@
         <v>17</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="23">
         <v>7</v>
@@ -4482,7 +4482,7 @@
         <v>19</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="23">
         <v>6</v>
@@ -4524,7 +4524,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="23">
         <v>1</v>
@@ -4566,7 +4566,7 @@
         <v>25</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="23">
         <v>7</v>
@@ -4608,7 +4608,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="23">
         <v>17</v>
@@ -4650,7 +4650,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="23">
         <v>18</v>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N67" s="17">
         <v>2018</v>
@@ -4692,7 +4692,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="11">
         <v>19</v>
@@ -4734,7 +4734,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="11">
         <v>15</v>
@@ -4776,7 +4776,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="11">
         <v>19</v>
@@ -4818,7 +4818,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="11">
         <v>19</v>
@@ -4858,7 +4858,7 @@
     <row r="72" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="11">
         <v>19</v>
@@ -4900,7 +4900,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" s="11">
         <v>14</v>
@@ -4942,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="11">
         <v>19</v>
@@ -4984,7 +4984,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" s="23">
         <v>18</v>
@@ -5026,7 +5026,7 @@
         <v>11</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="23">
         <v>19</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N76" s="17">
         <v>2018</v>
@@ -5068,7 +5068,7 @@
         <v>18</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="23">
         <v>13</v>
@@ -5110,7 +5110,7 @@
         <v>19</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="23">
         <v>19</v>
@@ -5152,7 +5152,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="23">
         <v>16</v>
@@ -5194,7 +5194,7 @@
         <v>23</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="24">
         <v>1</v>
@@ -5234,7 +5234,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="24">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="24">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="24">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="23">
         <v>1</v>
@@ -5396,7 +5396,7 @@
         <v>17</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="23">
         <v>1</v>
@@ -5438,7 +5438,7 @@
         <v>24</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="11">
         <v>5</v>
@@ -5480,7 +5480,7 @@
         <v>28</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="11">
         <v>18</v>
@@ -5522,7 +5522,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="11">
         <v>19</v>
@@ -5564,7 +5564,7 @@
         <v>10</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" s="11">
         <v>17</v>
@@ -5606,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C90" s="11">
         <v>18</v>
@@ -5648,7 +5648,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="11">
         <v>19</v>
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="M91" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N91" s="17">
         <v>2019</v>
@@ -5690,7 +5690,7 @@
         <v>20</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="11">
         <v>20</v>
@@ -5732,7 +5732,7 @@
         <v>29</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="11">
         <v>19</v>
@@ -5774,7 +5774,7 @@
         <v>14</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="11">
         <v>18</v>
@@ -5816,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="11">
         <v>19</v>
@@ -5858,7 +5858,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="11">
         <v>18</v>
@@ -5898,7 +5898,7 @@
     <row r="97" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="11">
         <v>18</v>
@@ -5929,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="M97" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N97" s="17">
         <v>2019</v>
@@ -5940,7 +5940,7 @@
         <v>19</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" s="11">
         <v>17</v>
@@ -5982,7 +5982,7 @@
         <v>23</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="11">
         <v>8</v>
@@ -6024,7 +6024,7 @@
         <v>18</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="11">
         <v>17</v>
@@ -6066,7 +6066,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C101" s="11">
         <v>14</v>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C102" s="11">
         <v>20</v>
@@ -6150,7 +6150,7 @@
         <v>28</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="11">
         <v>10</v>
@@ -6192,7 +6192,7 @@
         <v>22</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C104" s="11">
         <v>18</v>
@@ -6234,7 +6234,7 @@
         <v>17</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C105" s="11">
         <v>12</v>
@@ -6276,7 +6276,7 @@
         <v>26</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" s="11">
         <v>3</v>
@@ -6318,7 +6318,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
@@ -6358,7 +6358,7 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C108" s="11">
         <v>2</v>
@@ -6400,7 +6400,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109" s="11">
         <v>16</v>
@@ -6442,7 +6442,7 @@
         <v>15</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" s="11">
         <v>7</v>
@@ -6484,7 +6484,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
@@ -6526,7 +6526,7 @@
         <v>16</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C112" s="11">
         <v>20</v>
@@ -6568,7 +6568,7 @@
         <v>25</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="11">
         <v>12</v>
@@ -6610,7 +6610,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="11">
         <v>3</v>
@@ -6652,7 +6652,7 @@
         <v>24</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="11">
         <v>4</v>
@@ -6694,7 +6694,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C116" s="11">
         <v>16</v>
@@ -6736,7 +6736,7 @@
         <v>8</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" s="11">
         <v>16</v>
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="M117" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N117" s="17">
         <v>2021</v>
@@ -6778,7 +6778,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C118" s="11">
         <v>16</v>
@@ -6820,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="11">
         <v>15</v>
@@ -6862,7 +6862,7 @@
         <v>16</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="11">
         <v>16</v>
@@ -6904,7 +6904,7 @@
         <v>14</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="11">
         <v>16</v>
@@ -6946,7 +6946,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" s="11">
         <v>16</v>
@@ -6988,7 +6988,7 @@
         <v>27</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="11">
         <v>11</v>
@@ -7030,7 +7030,7 @@
         <v>24</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="11">
         <v>16</v>
@@ -7072,7 +7072,7 @@
         <v>13</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C125" s="11">
         <v>15</v>
@@ -7114,7 +7114,7 @@
         <v>23</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="11">
         <v>8</v>
@@ -7156,7 +7156,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="11">
         <v>16</v>
@@ -7198,7 +7198,7 @@
         <v>17</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="11">
         <v>3</v>
@@ -7240,7 +7240,7 @@
         <v>21</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129" s="11">
         <v>13</v>
@@ -7282,7 +7282,7 @@
         <v>19</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C130" s="11">
         <v>5</v>
@@ -7324,7 +7324,7 @@
         <v>20</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="11">
         <v>8</v>
@@ -7366,7 +7366,7 @@
         <v>29</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="11">
         <v>5</v>
@@ -7408,7 +7408,7 @@
         <v>30</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="11">
         <v>11</v>
@@ -7448,7 +7448,7 @@
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="11">
         <v>7</v>
@@ -7490,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C135" s="11">
         <v>15</v>
@@ -7532,7 +7532,7 @@
         <v>18</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C136" s="11">
         <v>12</v>
@@ -7574,7 +7574,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="11">
         <v>2</v>
@@ -7616,7 +7616,7 @@
         <v>26</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C138" s="11">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>4</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C139" s="11">
         <v>6</v>
@@ -7700,7 +7700,7 @@
         <v>15</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="11">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>25</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C141" s="11">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>22</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C142" s="11">
         <v>9</v>
@@ -7826,7 +7826,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C143" s="9">
         <v>18</v>
@@ -7853,13 +7853,13 @@
         <v>0.45</v>
       </c>
       <c r="K143" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L143" s="12">
         <v>2</v>
       </c>
       <c r="M143" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N143" s="17">
         <v>2022</v>
@@ -7870,7 +7870,7 @@
         <v>25</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="9">
         <v>18</v>
@@ -7914,7 +7914,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C145" s="9">
         <v>16</v>
@@ -7941,13 +7941,13 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="K145" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L145" s="12">
         <v>0</v>
       </c>
       <c r="M145" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N145" s="17">
         <v>2022</v>
@@ -7958,7 +7958,7 @@
         <v>17</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C146" s="9">
         <v>18</v>
@@ -7985,7 +7985,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="K146" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L146" s="12">
         <v>2</v>
@@ -8002,7 +8002,7 @@
         <v>24</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C147" s="9">
         <v>18</v>
@@ -8029,13 +8029,13 @@
         <v>0.4</v>
       </c>
       <c r="K147" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L147" s="12">
         <v>2</v>
       </c>
       <c r="M147" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N147" s="17">
         <v>2022</v>
@@ -8044,7 +8044,7 @@
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="9">
         <v>2</v>
@@ -8088,7 +8088,7 @@
         <v>23</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C149" s="9">
         <v>14</v>
@@ -8115,7 +8115,7 @@
         <v>0.182</v>
       </c>
       <c r="K149" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L149" s="12">
         <v>0</v>
@@ -8132,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C150" s="9">
         <v>16</v>
@@ -8159,7 +8159,7 @@
         <v>0.313</v>
       </c>
       <c r="K150" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L150" s="12">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C151" s="9">
         <v>18</v>
@@ -8220,7 +8220,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C152" s="9">
         <v>17</v>
@@ -8247,7 +8247,7 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L152" s="12">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>21</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C153" s="9">
         <v>18</v>
@@ -8291,7 +8291,7 @@
         <v>0.25</v>
       </c>
       <c r="K153" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L153" s="12">
         <v>0</v>
@@ -8308,7 +8308,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C154" s="9">
         <v>2</v>
@@ -8352,7 +8352,7 @@
         <v>20</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C155" s="9">
         <v>18</v>
@@ -8379,7 +8379,7 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="K155" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L155" s="12">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C156" s="9">
         <v>2</v>
@@ -8440,7 +8440,7 @@
         <v>19</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" s="9">
         <v>18</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L157" s="12">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>8</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C158" s="9">
         <v>17</v>
@@ -8511,7 +8511,7 @@
         <v>0.2</v>
       </c>
       <c r="K158" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L158" s="12">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>14</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159" s="9">
         <v>12</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L159" s="12">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>30</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C160" s="9">
         <v>17</v>
@@ -8616,7 +8616,7 @@
         <v>11</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C161" s="9">
         <v>5</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="K161" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L161" s="12">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>5</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C162" s="9">
         <v>18</v>
@@ -8687,7 +8687,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="K162" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L162" s="10">
         <v>0</v>
@@ -8702,7 +8702,7 @@
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C163" s="9">
         <v>3</v>
@@ -8746,7 +8746,7 @@
         <v>4</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C164" s="9">
         <v>18</v>
@@ -8773,7 +8773,7 @@
         <v>0.5</v>
       </c>
       <c r="K164" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L164" s="10">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>18</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C165" s="9">
         <v>5</v>
@@ -8832,7 +8832,7 @@
     <row r="166" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="30"/>
       <c r="B166" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C166" s="11">
         <v>18</v>
@@ -8859,7 +8859,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="K166" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L166" s="13">
         <v>2</v>
@@ -8876,7 +8876,7 @@
         <v>10</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C167" s="11">
         <v>18</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N167" s="17">
         <v>2023</v>
@@ -8920,7 +8920,7 @@
         <v>23</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C168" s="11">
         <v>18</v>
@@ -8953,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="M168" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N168" s="17">
         <v>2023</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B169" s="30"/>
       <c r="C169" s="11">
@@ -9006,7 +9006,7 @@
         <v>9</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C170" s="11">
         <v>17</v>
@@ -9033,7 +9033,7 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="K170" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L170" s="13">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>24</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C171" s="11">
         <v>18</v>
@@ -9094,7 +9094,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C172" s="11">
         <v>13</v>
@@ -9121,7 +9121,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="K172" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L172" s="13">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>32</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C173" s="11">
         <v>17</v>
@@ -9165,7 +9165,7 @@
         <v>0.75</v>
       </c>
       <c r="K173" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L173" s="13">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C174" s="11">
         <v>18</v>
@@ -9226,7 +9226,7 @@
         <v>8</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C175" s="11">
         <v>16</v>
@@ -9253,7 +9253,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="K175" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L175" s="13">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>20</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C176" s="11">
         <v>14</v>
@@ -9297,7 +9297,7 @@
         <v>0.75</v>
       </c>
       <c r="K176" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L176" s="13">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>31</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C177" s="11">
         <v>11</v>
@@ -9358,7 +9358,7 @@
         <v>22</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C178" s="11">
         <v>17</v>
@@ -9385,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="K178" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L178" s="13">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>19</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C179" s="11">
         <v>18</v>
@@ -9429,7 +9429,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="K179" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L179" s="12">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C180" s="11">
         <v>10</v>
@@ -9473,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="K180" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L180" s="12">
         <v>0</v>
@@ -9490,7 +9490,7 @@
         <v>14</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C181" s="11">
         <v>18</v>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L181" s="12">
         <v>0</v>
@@ -9532,7 +9532,7 @@
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C182" s="11">
         <v>5</v>
@@ -9576,7 +9576,7 @@
         <v>4</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C183" s="11">
         <v>15</v>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L183" s="12">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C184" s="11">
         <v>18</v>
@@ -9647,7 +9647,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="K184" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L184" s="12">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>30</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C185" s="11">
         <v>14</v>
